--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-26T15:00:01+00:00</t>
+    <t>2021-11-26T15:49:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-26T15:49:28+00:00</t>
+    <t>2021-12-02T15:33:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T15:33:35+00:00</t>
+    <t>2021-12-02T15:37:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T15:37:14+00:00</t>
+    <t>2021-12-07T06:08:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-07T06:08:43+00:00</t>
+    <t>2021-12-07T14:13:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-07T14:13:42+00:00</t>
+    <t>2021-12-16T13:25:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t>HL7® Austria FHIR® Core Extension for the religion (registered in Austria) of a patient.</t>
+    <t>HL7® Austria FHIR® Core Extension for the religion (registered in Austria) of a patient.
+The extension is used to encode the religious confession of a patient (only confessions registered in Austria). Furthermore, it uses the official [HL7 AT CodeSystem](https://termpub.gesundheit.gv.at:443/TermBrowser/gui/main/main.zul?loadType=CodeSystem&amp;loadName=HL7 AT ReligionAustria) for religion and is therefore aligned with the ELGA ValueSet, respectively.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T13:25:08+00:00</t>
+    <t>2021-12-16T13:27:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T13:27:06+00:00</t>
+    <t>2021-12-16T13:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T13:40:06+00:00</t>
+    <t>2021-12-16T13:42:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T13:42:07+00:00</t>
+    <t>2021-12-16T13:44:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T13:44:47+00:00</t>
+    <t>2021-12-16T13:46:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T13:46:43+00:00</t>
+    <t>2021-12-16T13:52:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T13:52:34+00:00</t>
+    <t>2021-12-16T13:56:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T13:56:13+00:00</t>
+    <t>2021-12-16T14:00:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:00:07+00:00</t>
+    <t>2021-12-16T14:06:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:06:02+00:00</t>
+    <t>2021-12-16T14:10:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:10:18+00:00</t>
+    <t>2021-12-16T14:12:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:12:05+00:00</t>
+    <t>2021-12-16T14:13:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:13:37+00:00</t>
+    <t>2021-12-16T14:16:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:16:27+00:00</t>
+    <t>2021-12-16T14:22:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:22:32+00:00</t>
+    <t>2021-12-16T14:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:50:40+00:00</t>
+    <t>2021-12-16T17:43:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T17:43:51+00:00</t>
+    <t>2021-12-16T18:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T18:14:01+00:00</t>
+    <t>2021-12-16T18:18:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T18:18:02+00:00</t>
+    <t>2022-01-27T17:29:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:29:14+00:00</t>
+    <t>2022-04-12T14:20:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T14:20:55+00:00</t>
+    <t>2022-04-12T15:07:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T15:07:33+00:00</t>
+    <t>2022-11-16T17:52:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -245,63 +245,63 @@
 </t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>code</t>
@@ -859,41 +859,41 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="46.94140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.7578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="66.76171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="64.53125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="64.53515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="23.953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="23.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="46.52734375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="46.53125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1100,7 +1100,7 @@
         <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>72</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1119,25 +1119,25 @@
         <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1188,31 +1188,31 @@
         <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -1231,16 +1231,16 @@
         <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -1278,19 +1278,19 @@
         <v>72</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>73</v>
@@ -1302,15 +1302,15 @@
         <v>72</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>94</v>
@@ -1323,7 +1323,7 @@
         <v>73</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>72</v>
@@ -1335,7 +1335,7 @@
         <v>72</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>95</v>
@@ -1392,7 +1392,7 @@
         <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>73</v>
@@ -1404,7 +1404,7 @@
         <v>72</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>72</v>
@@ -1423,25 +1423,25 @@
         <v>73</v>
       </c>
       <c r="F6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J6" t="s" s="2">
+      <c r="K6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1492,22 +1492,22 @@
         <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -1535,7 +1535,7 @@
         <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>27</v>
@@ -1580,19 +1580,19 @@
         <v>72</v>
       </c>
       <c r="AA7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB7" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AB7" t="s" s="2">
+      <c r="AC7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD7" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD7" t="s" s="2">
+      <c r="AE7" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>73</v>
@@ -1604,7 +1604,7 @@
         <v>72</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>72</v>
@@ -1620,10 +1620,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>72</v>
@@ -1697,10 +1697,10 @@
         <v>104</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>72</v>
@@ -1725,7 +1725,7 @@
         <v>73</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>72</v>
@@ -1798,7 +1798,7 @@
         <v>73</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>72</v>
@@ -1823,25 +1823,25 @@
         <v>73</v>
       </c>
       <c r="F10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J10" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J10" t="s" s="2">
+      <c r="K10" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1892,22 +1892,22 @@
         <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="11">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -1935,16 +1935,16 @@
         <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -1982,19 +1982,19 @@
         <v>72</v>
       </c>
       <c r="AA11" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB11" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AB11" t="s" s="2">
+      <c r="AC11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD11" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD11" t="s" s="2">
+      <c r="AE11" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>73</v>
@@ -2006,10 +2006,10 @@
         <v>72</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
@@ -2129,25 +2129,25 @@
         <v>73</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J13" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J13" t="s" s="2">
+      <c r="K13" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2198,22 +2198,22 @@
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="14">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2241,16 +2241,16 @@
         <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2288,19 +2288,19 @@
         <v>72</v>
       </c>
       <c r="AA14" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB14" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AB14" t="s" s="2">
+      <c r="AC14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD14" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD14" t="s" s="2">
+      <c r="AE14" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>73</v>
@@ -2312,10 +2312,10 @@
         <v>72</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
@@ -2331,7 +2331,7 @@
         <v>73</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>72</v>
@@ -2410,7 +2410,7 @@
         <v>73</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>72</v>
@@ -2435,7 +2435,7 @@
         <v>73</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>72</v>
@@ -2447,7 +2447,7 @@
         <v>117</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>136</v>
@@ -2512,7 +2512,7 @@
         <v>73</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>72</v>
@@ -2537,7 +2537,7 @@
         <v>73</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>72</v>
@@ -2614,7 +2614,7 @@
         <v>73</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>72</v>
@@ -2639,7 +2639,7 @@
         <v>73</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>72</v>
@@ -2651,7 +2651,7 @@
         <v>117</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>149</v>
@@ -2716,7 +2716,7 @@
         <v>73</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>72</v>
@@ -2741,7 +2741,7 @@
         <v>73</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>72</v>
@@ -2820,7 +2820,7 @@
         <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>72</v>
@@ -2845,7 +2845,7 @@
         <v>73</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>72</v>
@@ -2857,7 +2857,7 @@
         <v>117</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>163</v>
@@ -2924,7 +2924,7 @@
         <v>73</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>72</v>
@@ -2938,7 +2938,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>169</v>
@@ -2951,7 +2951,7 @@
         <v>73</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>72</v>
@@ -2963,7 +2963,7 @@
         <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>170</v>
@@ -3020,7 +3020,7 @@
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>73</v>
@@ -3032,7 +3032,7 @@
         <v>72</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>72</v>
@@ -3051,25 +3051,25 @@
         <v>73</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J22" t="s" s="2">
+      <c r="K22" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3120,22 +3120,22 @@
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="23">
@@ -3163,7 +3163,7 @@
         <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>27</v>
@@ -3208,19 +3208,19 @@
         <v>72</v>
       </c>
       <c r="AA23" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB23" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AB23" t="s" s="2">
+      <c r="AC23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD23" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD23" t="s" s="2">
+      <c r="AE23" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>73</v>
@@ -3232,7 +3232,7 @@
         <v>72</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>72</v>
@@ -3248,10 +3248,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>72</v>
@@ -3325,10 +3325,10 @@
         <v>104</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>72</v>
@@ -3350,10 +3350,10 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>72</v>
@@ -3428,7 +3428,7 @@
         <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>72</v>
@@ -3450,10 +3450,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>72</v>
@@ -3527,10 +3527,10 @@
         <v>104</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>72</v>
@@ -3630,7 +3630,7 @@
         <v>73</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>72</v>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="196">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T17:52:05+00:00</t>
+    <t>2023-01-20T07:23:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -124,6 +124,9 @@
     <t>element:Element</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>Path</t>
   </si>
   <si>
@@ -239,6 +242,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -304,6 +311,9 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>Extension.extension:code</t>
+  </si>
+  <si>
     <t>code</t>
   </si>
   <si>
@@ -313,10 +323,19 @@
     <t>An Extension</t>
   </si>
   <si>
+    <t>Extension.extension:code.id</t>
+  </si>
+  <si>
     <t>Extension.extension.id</t>
   </si>
   <si>
+    <t>Extension.extension:code.extension</t>
+  </si>
+  <si>
     <t>Extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:code.url</t>
   </si>
   <si>
     <t>Extension.extension.url</t>
@@ -341,6 +360,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Extension.extension:code.value[x]</t>
+  </si>
+  <si>
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
@@ -367,10 +389,19 @@
 </t>
   </si>
   <si>
+    <t>Extension.extension:code.value[x].id</t>
+  </si>
+  <si>
     <t>Extension.extension.value[x].id</t>
   </si>
   <si>
+    <t>Extension.extension:code.value[x].extension</t>
+  </si>
+  <si>
     <t>Extension.extension.value[x].extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:code.value[x].coding</t>
   </si>
   <si>
     <t>Extension.extension.value[x].coding</t>
@@ -401,12 +432,21 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
+    <t>Extension.extension:code.value[x].coding.id</t>
+  </si>
+  <si>
     <t>Extension.extension.value[x].coding.id</t>
   </si>
   <si>
+    <t>Extension.extension:code.value[x].coding.extension</t>
+  </si>
+  <si>
     <t>Extension.extension.value[x].coding.extension</t>
   </si>
   <si>
+    <t>Extension.extension:code.value[x].coding.system</t>
+  </si>
+  <si>
     <t>Extension.extension.value[x].coding.system</t>
   </si>
   <si>
@@ -431,6 +471,9 @@
     <t>./codeSystem</t>
   </si>
   <si>
+    <t>Extension.extension:code.value[x].coding.version</t>
+  </si>
+  <si>
     <t>Extension.extension.value[x].coding.version</t>
   </si>
   <si>
@@ -447,6 +490,9 @@
   </si>
   <si>
     <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Extension.extension:code.value[x].coding.code</t>
   </si>
   <si>
     <t>Extension.extension.value[x].coding.code</t>
@@ -471,6 +517,9 @@
     <t>./code</t>
   </si>
   <si>
+    <t>Extension.extension:code.value[x].coding.display</t>
+  </si>
+  <si>
     <t>Extension.extension.value[x].coding.display</t>
   </si>
   <si>
@@ -487,6 +536,9 @@
   </si>
   <si>
     <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Extension.extension:code.value[x].coding.userSelected</t>
   </si>
   <si>
     <t>Extension.extension.value[x].coding.userSelected</t>
@@ -514,6 +566,9 @@
     <t>CD.codingRationale</t>
   </si>
   <si>
+    <t>Extension.extension:code.value[x].text</t>
+  </si>
+  <si>
     <t>Extension.extension.value[x].text</t>
   </si>
   <si>
@@ -535,10 +590,25 @@
     <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
+    <t>Extension.extension:period</t>
+  </si>
+  <si>
     <t>period</t>
   </si>
   <si>
     <t>Time period of the Religion</t>
+  </si>
+  <si>
+    <t>Extension.extension:period.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:period.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:period.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:period.value[x]</t>
   </si>
   <si>
     <t xml:space="preserve">Period
@@ -849,7 +919,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ27"/>
+  <dimension ref="A1:AK27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -858,42 +928,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.94140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.98046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="46.94140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.76171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="229.41796875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="64.53515625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="23.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="64.53515625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="23.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="46.53125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="46.53125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1005,93 +1075,96 @@
       <c r="AJ1" t="s" s="1">
         <v>71</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>74</v>
@@ -1100,2546 +1173,2624 @@
         <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="M3" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="M3" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK4" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K4" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AB4" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="C5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K5" t="s" s="2">
+      <c r="AG5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L5" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>72</v>
+      <c r="AK5" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="M6" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="L7" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M7" s="2"/>
+      <c r="M7" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>72</v>
+        <v>95</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>105</v>
+        <v>73</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X9" s="2"/>
-      <c r="Y9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y9" s="2"/>
+      <c r="Z9" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK9" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="M12" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>124</v>
+      <c r="AK12" t="s" s="2">
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="K15" t="s" s="2">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="P15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>134</v>
+        <v>120</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>147</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>140</v>
+        <v>120</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="P17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>147</v>
+        <v>120</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>162</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="P18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>153</v>
+        <v>120</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>169</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="P19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>161</v>
+        <v>120</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>178</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="P20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>168</v>
+        <v>120</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>186</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>83</v>
+        <v>187</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>169</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>170</v>
+        <v>87</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>72</v>
+        <v>95</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M23" s="2"/>
+      <c r="M23" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>72</v>
+        <v>95</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>72</v>
+        <v>188</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>105</v>
+        <v>73</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>171</v>
+        <v>73</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>108</v>
+        <v>194</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>105</v>
+        <v>120</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>111</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="R26" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="S26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>105</v>
+        <v>73</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>111</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>108</v>
+        <v>195</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>105</v>
+        <v>120</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-20T07:23:49+00:00</t>
+    <t>2023-02-16T15:18:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T15:18:08+00:00</t>
+    <t>2023-03-06T16:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-11T12:50:36+00:00</t>
+    <t>2023-12-04T20:00:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -252,6 +252,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -307,10 +311,6 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>Extension.extension:code</t>
   </si>
   <si>
@@ -379,7 +379,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/ValueSet/at-elga-vs-religion</t>
+    <t>https://termgit.elga.gv.at/ValueSet/elga-religiousaffiliation</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -738,10 +738,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -953,7 +953,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.53515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.5546875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1176,7 +1176,7 @@
         <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>73</v>
@@ -1184,10 +1184,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1198,7 +1198,7 @@
         <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>73</v>
@@ -1210,13 +1210,13 @@
         <v>73</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1267,13 +1267,13 @@
         <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>73</v>
@@ -1282,19 +1282,19 @@
         <v>73</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
@@ -1313,16 +1313,16 @@
         <v>73</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1360,19 +1360,19 @@
         <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>74</v>
@@ -1384,10 +1384,10 @@
         <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -1395,7 +1395,7 @@
         <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>97</v>
@@ -1408,7 +1408,7 @@
         <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>73</v>
@@ -1420,7 +1420,7 @@
         <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L5" t="s" s="2">
         <v>98</v>
@@ -1477,7 +1477,7 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>74</v>
@@ -1489,7 +1489,7 @@
         <v>73</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>73</v>
@@ -1511,7 +1511,7 @@
         <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>73</v>
@@ -1523,13 +1523,13 @@
         <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1580,13 +1580,13 @@
         <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>73</v>
@@ -1595,7 +1595,7 @@
         <v>73</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -1626,7 +1626,7 @@
         <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>27</v>
@@ -1671,19 +1671,19 @@
         <v>73</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>74</v>
@@ -1695,7 +1695,7 @@
         <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>73</v>
@@ -1714,10 +1714,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>73</v>
@@ -1791,10 +1791,10 @@
         <v>110</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>73</v>
@@ -1822,7 +1822,7 @@
         <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>73</v>
@@ -1895,7 +1895,7 @@
         <v>74</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>73</v>
@@ -1923,7 +1923,7 @@
         <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>73</v>
@@ -1935,13 +1935,13 @@
         <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1992,13 +1992,13 @@
         <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>73</v>
@@ -2007,7 +2007,7 @@
         <v>73</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2038,16 +2038,16 @@
         <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2085,19 +2085,19 @@
         <v>73</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>74</v>
@@ -2109,10 +2109,10 @@
         <v>73</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
@@ -2238,7 +2238,7 @@
         <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>73</v>
@@ -2250,13 +2250,13 @@
         <v>73</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2307,13 +2307,13 @@
         <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>73</v>
@@ -2322,7 +2322,7 @@
         <v>73</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
@@ -2334,7 +2334,7 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2353,16 +2353,16 @@
         <v>73</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2400,19 +2400,19 @@
         <v>73</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>74</v>
@@ -2424,10 +2424,10 @@
         <v>73</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
@@ -2446,7 +2446,7 @@
         <v>74</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>73</v>
@@ -2525,7 +2525,7 @@
         <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>73</v>
@@ -2553,7 +2553,7 @@
         <v>74</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>73</v>
@@ -2565,7 +2565,7 @@
         <v>127</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>150</v>
@@ -2630,7 +2630,7 @@
         <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>73</v>
@@ -2658,7 +2658,7 @@
         <v>74</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>73</v>
@@ -2735,7 +2735,7 @@
         <v>74</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>73</v>
@@ -2763,7 +2763,7 @@
         <v>74</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>73</v>
@@ -2775,7 +2775,7 @@
         <v>127</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>165</v>
@@ -2840,7 +2840,7 @@
         <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>73</v>
@@ -2868,7 +2868,7 @@
         <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>73</v>
@@ -2947,7 +2947,7 @@
         <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>73</v>
@@ -2975,7 +2975,7 @@
         <v>74</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>73</v>
@@ -2987,7 +2987,7 @@
         <v>127</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>181</v>
@@ -3054,7 +3054,7 @@
         <v>74</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>73</v>
@@ -3071,7 +3071,7 @@
         <v>187</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>188</v>
@@ -3084,7 +3084,7 @@
         <v>74</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>73</v>
@@ -3096,7 +3096,7 @@
         <v>73</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>189</v>
@@ -3153,7 +3153,7 @@
         <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>74</v>
@@ -3165,7 +3165,7 @@
         <v>73</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>73</v>
@@ -3187,7 +3187,7 @@
         <v>74</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>73</v>
@@ -3199,13 +3199,13 @@
         <v>73</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3256,13 +3256,13 @@
         <v>73</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>73</v>
@@ -3271,7 +3271,7 @@
         <v>73</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
@@ -3302,7 +3302,7 @@
         <v>73</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>27</v>
@@ -3347,19 +3347,19 @@
         <v>73</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>74</v>
@@ -3371,7 +3371,7 @@
         <v>73</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>73</v>
@@ -3390,10 +3390,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>73</v>
@@ -3467,10 +3467,10 @@
         <v>110</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>73</v>
@@ -3495,10 +3495,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>73</v>
@@ -3573,7 +3573,7 @@
         <v>74</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>73</v>
@@ -3598,10 +3598,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>73</v>
@@ -3675,10 +3675,10 @@
         <v>110</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>73</v>
@@ -3781,7 +3781,7 @@
         <v>74</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>73</v>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T20:00:03+00:00</t>
+    <t>2023-12-21T16:09:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-21T16:09:23+00:00</t>
+    <t>2024-02-07T16:56:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T16:56:02+00:00</t>
+    <t>2024-02-10T19:16:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-10T19:16:02+00:00</t>
+    <t>2024-02-10T19:21:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-10T19:21:32+00:00</t>
+    <t>2024-02-16T09:06:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="197">
   <si>
     <t>Property</t>
   </si>
@@ -57,10 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T09:06:45+00:00</t>
+    <t>2024-02-19T12:19:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
+  </si>
+  <si>
+    <t>HL7® Austria, TC FHIR®</t>
   </si>
   <si>
     <t>Contact</t>
@@ -750,7 +753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -826,29 +829,33 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>18</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
@@ -860,56 +867,62 @@
       <c r="A14" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B14" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="B20" t="s" s="2">
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>35</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -968,2829 +981,2829 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y9" s="2"/>
       <c r="Z9" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
         <v>3</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="198">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T12:19:47+00:00</t>
+    <t>2024-05-06T15:57:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,10 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7® Austria, TC FHIR® (https://hl7.at/technische-komitees/tc-fhir/)</t>
+  </si>
+  <si>
+    <t>Technical Committee for FHIR® at HL7® Austria (mailto:tc-fhir@hl7.at)</t>
   </si>
   <si>
     <t>Description</t>
@@ -846,83 +849,83 @@
         <v>17</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -981,2829 +984,2829 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Y9" s="2"/>
       <c r="Z9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
         <v>3</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="132">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T15:57:30+00:00</t>
+    <t>2024-05-06T16:08:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -393,207 +393,6 @@
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>Extension.extension:code.value[x].id</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x].id</t>
-  </si>
-  <si>
-    <t>Extension.extension:code.value[x].extension</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x].extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:code.value[x].coding</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x].coding</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Extension.extension:code.value[x].coding.id</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x].coding.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:code.value[x].coding.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x].coding.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:code.value[x].coding.system</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x].coding.system</t>
-  </si>
-  <si>
-    <t>URL for the HL7 AT CodeSystem used by the ELGA ValueSet for religion</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/CodeSystem/at-core-cs-religion</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>Extension.extension:code.value[x].coding.version</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x].coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>Extension.extension:code.value[x].coding.code</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x].coding.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>Extension.extension:code.value[x].coding.display</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x].coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>Extension.extension:code.value[x].coding.userSelected</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x].coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Extension.extension:code.value[x].text</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x].text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Extension.extension:period</t>
@@ -935,7 +734,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK27"/>
+  <dimension ref="A1:AK16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -944,8 +743,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.98046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.94140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.60546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -958,7 +757,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="229.41796875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -975,11 +774,11 @@
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="23.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="46.53125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1928,9 +1727,11 @@
         <v>123</v>
       </c>
       <c r="B10" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
         <v>75</v>
       </c>
@@ -1951,13 +1752,13 @@
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2008,41 +1809,41 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>75</v>
@@ -2054,17 +1855,15 @@
         <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>75</v>
@@ -2101,31 +1900,31 @@
         <v>75</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>87</v>
@@ -2136,7 +1935,7 @@
         <v>127</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2147,7 +1946,7 @@
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
@@ -2156,23 +1955,19 @@
         <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>75</v>
       </c>
@@ -2208,19 +2003,19 @@
         <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -2232,18 +2027,18 @@
         <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2251,7 +2046,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>82</v>
@@ -2266,22 +2061,24 @@
         <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>75</v>
@@ -2323,10 +2120,10 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>82</v>
@@ -2338,26 +2135,26 @@
         <v>75</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>87</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
@@ -2369,17 +2166,15 @@
         <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>75</v>
@@ -2416,42 +2211,42 @@
         <v>75</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>87</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2459,7 +2254,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>82</v>
@@ -2471,29 +2266,27 @@
         <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>108</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>147</v>
+        <v>3</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>75</v>
@@ -2535,10 +2328,10 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>82</v>
@@ -2547,18 +2340,18 @@
         <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>149</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2569,7 +2362,7 @@
         <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>75</v>
@@ -2578,20 +2371,18 @@
         <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>75</v>
@@ -2640,7 +2431,7 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -2655,1157 +2446,6 @@
         <v>122</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="P17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q17" s="2"/>
-      <c r="R17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="P18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q18" s="2"/>
-      <c r="R18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="P19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q19" s="2"/>
-      <c r="R19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="P20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q20" s="2"/>
-      <c r="R20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="D21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q21" s="2"/>
-      <c r="R21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q22" s="2"/>
-      <c r="R22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q23" s="2"/>
-      <c r="R23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O24" s="2"/>
-      <c r="P24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q24" s="2"/>
-      <c r="R24" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q25" s="2"/>
-      <c r="R25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O26" s="2"/>
-      <c r="P26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q26" s="2"/>
-      <c r="R26" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="S26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q27" s="2"/>
-      <c r="R27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AK27" t="s" s="2">
         <v>113</v>
       </c>
     </row>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T16:08:20+00:00</t>
+    <t>2024-06-05T13:01:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="133">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T13:01:07+00:00</t>
+    <t>2024-07-12T08:42:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>Technical Committee for FHIR® at HL7® Austria (mailto:tc-fhir@hl7.at)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -239,9 +245,6 @@
   </si>
   <si>
     <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>0</t>
@@ -555,7 +558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -663,21 +666,21 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
       </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
@@ -725,6 +728,14 @@
       </c>
       <c r="B21" t="s" s="2">
         <v>37</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -783,1670 +794,1670 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Y9" s="2"/>
       <c r="Z9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
         <v>3</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-12T08:42:46+00:00</t>
+    <t>2024-07-17T07:47:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-17T07:47:16+00:00</t>
+    <t>2024-10-16T10:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-16T10:06:48+00:00</t>
+    <t>2024-10-22T13:21:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="134">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T13:21:16+00:00</t>
+    <t>2024-10-22T15:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -133,7 +133,10 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Patient</t>
+  </si>
+  <si>
+    <t>element:http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/StructureDefinition/at-core-patient#Patient</t>
   </si>
   <si>
     <t>ID</t>
@@ -558,7 +561,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -736,6 +739,14 @@
       </c>
       <c r="B22" t="s" s="2">
         <v>39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -794,115 +805,115 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2">
@@ -918,10 +929,10 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>21</v>
@@ -933,7 +944,7 @@
         <v>21</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
@@ -993,16 +1004,16 @@
         <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>21</v>
@@ -1010,10 +1021,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1021,10 +1032,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>21</v>
@@ -1036,13 +1047,13 @@
         <v>21</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1093,13 +1104,13 @@
         <v>21</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>21</v>
@@ -1108,26 +1119,26 @@
         <v>21</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>21</v>
@@ -1139,16 +1150,16 @@
         <v>21</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1186,55 +1197,55 @@
         <v>21</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>21</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>21</v>
@@ -1246,13 +1257,13 @@
         <v>21</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1303,19 +1314,19 @@
         <v>21</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>21</v>
@@ -1323,10 +1334,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1334,10 +1345,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>21</v>
@@ -1349,13 +1360,13 @@
         <v>21</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1406,13 +1417,13 @@
         <v>21</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>21</v>
@@ -1421,15 +1432,15 @@
         <v>21</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1437,10 +1448,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>21</v>
@@ -1452,13 +1463,13 @@
         <v>21</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>31</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1497,31 +1508,31 @@
         <v>21</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>21</v>
@@ -1529,10 +1540,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1540,10 +1551,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>21</v>
@@ -1555,16 +1566,16 @@
         <v>21</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1572,7 +1583,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>21</v>
@@ -1614,13 +1625,13 @@
         <v>21</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>21</v>
@@ -1629,15 +1640,15 @@
         <v>21</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1645,10 +1656,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>21</v>
@@ -1660,13 +1671,13 @@
         <v>21</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1693,11 +1704,11 @@
         <v>21</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y9" s="2"/>
       <c r="Z9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>21</v>
@@ -1715,43 +1726,43 @@
         <v>21</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>21</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>21</v>
@@ -1763,13 +1774,13 @@
         <v>21</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1820,19 +1831,19 @@
         <v>21</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>21</v>
@@ -1840,10 +1851,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1851,10 +1862,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>21</v>
@@ -1866,13 +1877,13 @@
         <v>21</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1923,13 +1934,13 @@
         <v>21</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>21</v>
@@ -1938,15 +1949,15 @@
         <v>21</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1954,10 +1965,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>21</v>
@@ -1969,13 +1980,13 @@
         <v>21</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>31</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2014,31 +2025,31 @@
         <v>21</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>21</v>
@@ -2046,10 +2057,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2057,10 +2068,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>21</v>
@@ -2072,16 +2083,16 @@
         <v>21</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2089,7 +2100,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>21</v>
@@ -2131,13 +2142,13 @@
         <v>21</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>21</v>
@@ -2146,15 +2157,15 @@
         <v>21</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2162,10 +2173,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>21</v>
@@ -2177,13 +2188,13 @@
         <v>21</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2234,30 +2245,30 @@
         <v>21</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2265,10 +2276,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>21</v>
@@ -2280,16 +2291,16 @@
         <v>21</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2339,13 +2350,13 @@
         <v>21</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>21</v>
@@ -2354,15 +2365,15 @@
         <v>21</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2370,10 +2381,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>21</v>
@@ -2385,13 +2396,13 @@
         <v>21</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2442,22 +2453,22 @@
         <v>21</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-main/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T15:01:33+00:00</t>
+    <t>2024-10-22T15:25:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
